--- a/utils/test_case.xlsx
+++ b/utils/test_case.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\Desktop\QA\AutoTest\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB08595-AFD0-4D2F-BD98-120FEAC31C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C569205-CFFC-4279-8D51-EC101E4A1903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1005" windowWidth="21150" windowHeight="14295" activeTab="1" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
+    <workbookView xWindow="30" yWindow="1005" windowWidth="21150" windowHeight="14295" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="상품목록" sheetId="2" r:id="rId2"/>
-    <sheet name="카테고리" sheetId="3" r:id="rId3"/>
+    <sheet name="상품목록" sheetId="2" r:id="rId1"/>
+    <sheet name="카테고리" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>TC_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TC_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TC_002</t>
@@ -75,162 +74,60 @@
     <t>TC_010</t>
   </si>
   <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>TC_012</t>
-  </si>
-  <si>
-    <t>TC_013</t>
-  </si>
-  <si>
-    <t>TC_014</t>
-  </si>
-  <si>
-    <t>TC_015</t>
-  </si>
-  <si>
-    <t>TC_016</t>
-  </si>
-  <si>
-    <t>TC_017</t>
-  </si>
-  <si>
-    <t>TC_018</t>
-  </si>
-  <si>
-    <t>TC_019</t>
-  </si>
-  <si>
-    <t>TC_020</t>
-  </si>
-  <si>
-    <t>TC_021</t>
-  </si>
-  <si>
-    <t>테스트설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exepceted result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"dla05711", ""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비밀번호 미입력 시  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 미입력 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디, 비밀번호 미입력 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">잘못된 비밀번호 입력 시 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 아이디 입력 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">올바른 아이디 입력 시 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"disabled"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"error"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"success"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 목록(search_term)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>갤럭시S25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제로콜라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>맥북프로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iPhone16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>헤드셋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>노트북</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과자세트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>마우스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>키보드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[마켓컬리 자동화 테스트]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -250,17 +147,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,43 +161,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -333,33 +191,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,280 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA4A95D-D0AD-4FCB-830D-6E7FB7130FB3}">
-  <dimension ref="A2:F25"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:XFD2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DBF7D3-7E0D-4C7A-AFA7-80EDC24819A5}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -982,96 +553,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4FB5E9-590C-4D34-8171-1F113CA552E7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1089,91 +660,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/utils/test_case.xlsx
+++ b/utils/test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\Desktop\QA\AutoTest\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C569205-CFFC-4279-8D51-EC101E4A1903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE2DAD9-1323-46A7-BE0B-E992AB78987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1005" windowWidth="21150" windowHeight="14295" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
+    <workbookView xWindow="1410" yWindow="1185" windowWidth="21150" windowHeight="14295" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="상품목록" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>TC_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DBF7D3-7E0D-4C7A-AFA7-80EDC24819A5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,6 +642,14 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/utils/test_case.xlsx
+++ b/utils/test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\Desktop\QA\AutoTest\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE2DAD9-1323-46A7-BE0B-E992AB78987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C569205-CFFC-4279-8D51-EC101E4A1903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1185" windowWidth="21150" windowHeight="14295" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
+    <workbookView xWindow="30" yWindow="1005" windowWidth="21150" windowHeight="14295" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="상품목록" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>TC_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,14 +115,6 @@
   </si>
   <si>
     <t>물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DBF7D3-7E0D-4C7A-AFA7-80EDC24819A5}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,14 +634,6 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
